--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5155</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.73</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.73</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5487</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.83</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,25 +786,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8189</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>17.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6761</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -762,25 +862,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.62</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.92</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4282</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1524,4 +1525,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3837</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1074</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3148</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,14 +1946,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.47</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1941,14 +1984,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2022,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="5">
@@ -1973,13 +2144,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2065,7 +2066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2076,17 +2077,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2096,14 +2117,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2112,14 +2155,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4.47</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -2128,14 +2261,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.53</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="5">
@@ -2144,14 +2277,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="6">
@@ -2160,13 +2293,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2394,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.47</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -2277,14 +2410,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>3.53</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="6">
@@ -2293,14 +2426,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2442,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.68</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
+++ b/数据整理/stocks/A股/上证主板/600297-广汇汽车.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.47</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.53</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>3.82</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.68</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4678</t>
+          <t>0.3452</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4605</t>
+          <t>0.2284</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,32 +805,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>21.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5987</t>
+          <t>0.4678</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -826,32 +843,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1662</t>
+          <t>0.4605</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -864,6 +881,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,366 +1175,6 @@
       </c>
       <c r="H4" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3837</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1074</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4255</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3148</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0866</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1460,22 +1249,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.32</t>
+          <t>34.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0563</t>
+          <t>2.3837</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1498,26 +1287,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>17.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7132</t>
+          <t>1.1074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1536,22 +1325,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3818</t>
+          <t>0.4255</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1574,22 +1363,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2242</t>
+          <t>0.3148</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1612,22 +1401,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0715</t>
+          <t>0.1028</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1650,26 +1439,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>92.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0866</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1678,32 +1467,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1716,32 +1505,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0160</t>
+          <t>0.0225</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1754,6 +1543,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2189,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
